--- a/product/Qualitätsmatrix.xlsx
+++ b/product/Qualitätsmatrix.xlsx
@@ -61,22 +61,22 @@
     <t>Functional Stability/Suitability</t>
   </si>
   <si>
-    <t>Alle mit der App verbunden Bedürnisse und Anforderungen sollten erfüllt werden</t>
+    <t>Alle mit der App verbunden Bedürfnisse und Anforderungen sollten erfüllt werden</t>
   </si>
   <si>
     <t>Da die Dauer pro Nutzung relativ gering ausfällt sollte sie schnell und intuitiv benutzbar sein</t>
   </si>
   <si>
+    <t>Es werden keine überkritischen Daten wie Bankdaten gespeichert, jedoch Verbindungsdaten zu Smart Geräten sowie Inventardaten die Aufschluss über Lebensrhythmus und Gesundheit geben könnten.</t>
+  </si>
+  <si>
     <t>Die App wird wahrscheinlich "immer mal wieder, zwischendurch" benutzt, daher sollte es nicht nötig sein sich andere Programme sorgen machen zu müssen</t>
   </si>
   <si>
     <t>Die App sollte ohne große Ausfälle laufen, kleinere Probleme stellen aber kein großes Problem da</t>
   </si>
   <si>
-    <t>Es werden keine kritischen Daten gesammelt, jedoch sollten verbindungsinformationen zu möglichen "Smart" Geräten gesichert sein</t>
-  </si>
-  <si>
-    <t>Das Produkt muss nicht schnell auf mehrer Situationen anpassbar sein, sondern ist eher ein fertiges Produkt. Raum für zukünftige Erweiterungen sollte trotzdem existieren</t>
+    <t>Bei unserem Produkt ist keine Individualisierung für einen einzelnen Kunden vorgesehen. Maintainability sollte daher lediglich in Hinblick auf zukünftige Updates der App gegeben sein.</t>
   </si>
   <si>
     <t>Die Performance ist aufgrund der einfachen Anforderungen nicht wichtig, solange sie sich nicht merklich auf die Nutzererfahrung auswirkt</t>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -120,10 +120,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="18.0"/>
@@ -136,7 +132,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,12 +157,6 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border/>
@@ -218,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -243,29 +233,23 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,7 +573,7 @@
       <c r="L4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -622,10 +606,10 @@
         <v>13</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -657,10 +641,10 @@
       <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="L6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -692,10 +676,10 @@
       <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -727,10 +711,10 @@
       <c r="J8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -762,10 +746,10 @@
       <c r="J9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -797,10 +781,10 @@
       <c r="J10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="8" t="s">
         <v>22</v>
       </c>
     </row>
